--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -773,7 +773,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -414,14 +414,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>648</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Huyền Trân</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -457,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +640,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +940,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="32">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-39 La Thị Ngọc Hà My  8-2024.xlsx
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3000000</v>
+        <v>3107142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200000</v>
+        <v>3307142.857142857</v>
       </c>
     </row>
     <row r="32">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200000</v>
+        <v>3307142.857142857</v>
       </c>
     </row>
   </sheetData>
